--- a/data.xlsx
+++ b/data.xlsx
@@ -1205,8 +1205,8 @@
   <sheetPr/>
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>
@@ -1410,7 +1410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:6">
+    <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="1">
         <v>45969</v>
       </c>
@@ -1430,6 +1430,9 @@
       <c r="F10">
         <v>0</v>
       </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="1">
@@ -1538,7 +1541,7 @@
         <v>112</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:D20" si="1">B15-C15</f>
+        <f t="shared" ref="D15:D25" si="1">B15-C15</f>
         <v>176</v>
       </c>
       <c r="E15">
@@ -1658,7 +1661,7 @@
         <v>2715</v>
       </c>
       <c r="D20">
-        <f>B20-C20</f>
+        <f t="shared" si="1"/>
         <v>174</v>
       </c>
       <c r="E20">
@@ -1682,7 +1685,7 @@
         <v>2314</v>
       </c>
       <c r="D21">
-        <f>B21-C21</f>
+        <f t="shared" si="1"/>
         <v>339</v>
       </c>
       <c r="E21">
@@ -1706,7 +1709,7 @@
         <v>1640</v>
       </c>
       <c r="D22">
-        <f>B22-C22</f>
+        <f t="shared" si="1"/>
         <v>239</v>
       </c>
       <c r="E22">
@@ -1730,7 +1733,7 @@
         <v>1853</v>
       </c>
       <c r="D23">
-        <f>B23-C23</f>
+        <f t="shared" si="1"/>
         <v>208</v>
       </c>
       <c r="E23">
@@ -1754,7 +1757,7 @@
         <v>828</v>
       </c>
       <c r="D24">
-        <f>B24-C24</f>
+        <f t="shared" si="1"/>
         <v>233</v>
       </c>
       <c r="E24">
@@ -1778,7 +1781,7 @@
         <v>627</v>
       </c>
       <c r="D25">
-        <f>B25-C25</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="E25">

--- a/data.xlsx
+++ b/data.xlsx
@@ -57,11 +57,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -666,8 +667,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1203,15 +1207,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.5"/>
+    <col min="1" max="1" width="15.625"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="6:6">
@@ -1244,20 +1248,20 @@
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B3">
-        <v>645</v>
+        <v>39</v>
       </c>
       <c r="C3">
-        <v>498</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <f>B3-C3</f>
-        <v>147</v>
+        <f>B3</f>
+        <v>39</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1268,164 +1272,164 @@
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1">
-        <v>45963</v>
+        <v>45932</v>
       </c>
       <c r="B4">
-        <v>490</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>475</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D14" si="0">B4-C4</f>
-        <v>15</v>
+        <f t="shared" ref="D4:D32" si="0">B4</f>
+        <v>13</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="1">
-        <v>45964</v>
+        <v>45933</v>
       </c>
       <c r="B5">
-        <v>3696</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>3592</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="1">
-        <v>45965</v>
+        <v>45934</v>
       </c>
       <c r="B6">
-        <v>3965</v>
+        <v>21</v>
       </c>
       <c r="C6">
-        <v>3856</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="1">
-        <v>45966</v>
+        <v>45935</v>
       </c>
       <c r="B7">
-        <v>2911</v>
+        <v>27</v>
       </c>
       <c r="C7">
-        <v>2692</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>219</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="1">
-        <v>45967</v>
+        <v>45936</v>
       </c>
       <c r="B8">
-        <v>2354</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>2246</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="E8">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:7">
       <c r="A9" s="1">
-        <v>45968</v>
+        <v>45937</v>
       </c>
       <c r="B9">
-        <v>3389</v>
+        <v>46</v>
       </c>
       <c r="C9">
-        <v>3245</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>46</v>
       </c>
       <c r="E9">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="1">
-        <v>45969</v>
+        <v>45938</v>
       </c>
       <c r="B10">
-        <v>3140</v>
+        <v>78</v>
       </c>
       <c r="C10">
-        <v>2973</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="E10">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1436,20 +1440,20 @@
     </row>
     <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="1">
-        <v>45970</v>
+        <v>45939</v>
       </c>
       <c r="B11">
-        <v>914</v>
+        <v>65</v>
       </c>
       <c r="C11">
-        <v>856</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E11">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1460,164 +1464,164 @@
     </row>
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="1">
-        <v>45971</v>
+        <v>45940</v>
       </c>
       <c r="B12">
-        <v>4184</v>
+        <v>53</v>
       </c>
       <c r="C12">
-        <v>3948</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>236</v>
+        <v>53</v>
       </c>
       <c r="E12">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:7">
       <c r="A13" s="1">
-        <v>45972</v>
+        <v>45941</v>
       </c>
       <c r="B13">
-        <v>6360</v>
+        <v>57</v>
       </c>
       <c r="C13">
-        <v>6231</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="E13">
-        <v>146</v>
+        <v>5</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:7">
       <c r="A14" s="1">
-        <v>45973</v>
+        <v>45942</v>
       </c>
       <c r="B14">
-        <v>338</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:7">
       <c r="A15" s="1">
-        <v>45974</v>
+        <v>45943</v>
       </c>
       <c r="B15">
-        <v>288</v>
+        <v>58</v>
       </c>
       <c r="C15">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:D25" si="1">B15-C15</f>
-        <v>176</v>
+        <f t="shared" si="0"/>
+        <v>58</v>
       </c>
       <c r="E15">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="1">
-        <v>45975</v>
+        <v>45944</v>
       </c>
       <c r="B16">
-        <v>2980</v>
+        <v>80</v>
       </c>
       <c r="C16">
-        <v>2847</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <f t="shared" si="1"/>
-        <v>133</v>
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:7">
       <c r="A17" s="1">
-        <v>45976</v>
+        <v>45945</v>
       </c>
       <c r="B17">
-        <v>1703</v>
+        <v>67</v>
       </c>
       <c r="C17">
-        <v>1610</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
-        <v>93</v>
+        <f t="shared" si="0"/>
+        <v>67</v>
       </c>
       <c r="E17">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
       <c r="A18" s="1">
-        <v>45977</v>
+        <v>45946</v>
       </c>
       <c r="B18">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="C18">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
-        <v>81</v>
+        <f t="shared" si="0"/>
+        <v>75</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1628,349 +1632,1092 @@
     </row>
     <row r="19" customHeight="1" spans="1:7">
       <c r="A19" s="1">
-        <v>45978</v>
+        <v>45947</v>
       </c>
       <c r="B19">
-        <v>2920</v>
+        <v>85</v>
       </c>
       <c r="C19">
-        <v>2526</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
-        <v>394</v>
+        <f t="shared" si="0"/>
+        <v>85</v>
       </c>
       <c r="E19">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:7">
       <c r="A20" s="1">
-        <v>45979</v>
+        <v>45948</v>
       </c>
       <c r="B20">
-        <v>2889</v>
+        <v>60</v>
       </c>
       <c r="C20">
-        <v>2715</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
-        <v>174</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="E20">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:7">
       <c r="A21" s="1">
-        <v>45980</v>
+        <v>45949</v>
       </c>
       <c r="B21">
-        <v>2653</v>
+        <v>66</v>
       </c>
       <c r="C21">
-        <v>2314</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
-        <v>339</v>
+        <f t="shared" si="0"/>
+        <v>66</v>
       </c>
       <c r="E21">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:7">
       <c r="A22" s="1">
-        <v>45981</v>
+        <v>45950</v>
       </c>
       <c r="B22">
-        <v>1879</v>
+        <v>61</v>
       </c>
       <c r="C22">
-        <v>1640</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
-        <v>239</v>
+        <f t="shared" si="0"/>
+        <v>61</v>
       </c>
       <c r="E22">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:7">
       <c r="A23" s="1">
-        <v>45982</v>
+        <v>45951</v>
       </c>
       <c r="B23">
-        <v>2061</v>
+        <v>48</v>
       </c>
       <c r="C23">
-        <v>1853</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
-        <v>208</v>
+        <f t="shared" si="0"/>
+        <v>48</v>
       </c>
       <c r="E23">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:7">
       <c r="A24" s="1">
-        <v>45983</v>
+        <v>45952</v>
       </c>
       <c r="B24">
-        <v>1061</v>
+        <v>51</v>
       </c>
       <c r="C24">
-        <v>828</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
-        <v>233</v>
+        <v>4</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:7">
       <c r="A25" s="1">
+        <v>45953</v>
+      </c>
+      <c r="B25">
+        <v>40</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:7">
+      <c r="A26" s="1">
+        <v>45954</v>
+      </c>
+      <c r="B26">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:7">
+      <c r="A27" s="1">
+        <v>45955</v>
+      </c>
+      <c r="B27">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:7">
+      <c r="A28" s="1">
+        <v>45956</v>
+      </c>
+      <c r="B28">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:7">
+      <c r="A29" s="1">
+        <v>45957</v>
+      </c>
+      <c r="B29">
+        <v>35</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:7">
+      <c r="A30" s="1">
+        <v>45958</v>
+      </c>
+      <c r="B30">
+        <v>47</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:7">
+      <c r="A31" s="1">
+        <v>45959</v>
+      </c>
+      <c r="B31">
+        <v>71</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:7">
+      <c r="A32" s="1">
+        <v>45960</v>
+      </c>
+      <c r="B32">
+        <v>174</v>
+      </c>
+      <c r="C32">
+        <v>130</v>
+      </c>
+      <c r="D32">
+        <f>B32-C32</f>
+        <v>44</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:7">
+      <c r="A33" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B33">
+        <v>551</v>
+      </c>
+      <c r="C33">
+        <v>508</v>
+      </c>
+      <c r="D33">
+        <f>B33-C33</f>
+        <v>43</v>
+      </c>
+      <c r="E33">
+        <v>14</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:7">
+      <c r="A34" s="2">
+        <v>45962</v>
+      </c>
+      <c r="B34">
+        <v>645</v>
+      </c>
+      <c r="C34">
+        <v>498</v>
+      </c>
+      <c r="D34">
+        <f>B34-C34</f>
+        <v>147</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:7">
+      <c r="A35" s="2">
+        <v>45963</v>
+      </c>
+      <c r="B35">
+        <v>490</v>
+      </c>
+      <c r="C35">
+        <v>475</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ref="D35:D45" si="1">B35-C35</f>
+        <v>15</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:7">
+      <c r="A36" s="2">
+        <v>45964</v>
+      </c>
+      <c r="B36">
+        <v>3696</v>
+      </c>
+      <c r="C36">
+        <v>3592</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="E36">
+        <v>84</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:7">
+      <c r="A37" s="2">
+        <v>45965</v>
+      </c>
+      <c r="B37">
+        <v>3965</v>
+      </c>
+      <c r="C37">
+        <v>3856</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="E37">
+        <v>127</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:7">
+      <c r="A38" s="2">
+        <v>45966</v>
+      </c>
+      <c r="B38">
+        <v>2911</v>
+      </c>
+      <c r="C38">
+        <v>2692</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>219</v>
+      </c>
+      <c r="E38">
+        <v>74</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:7">
+      <c r="A39" s="2">
+        <v>45967</v>
+      </c>
+      <c r="B39">
+        <v>2354</v>
+      </c>
+      <c r="C39">
+        <v>2246</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="E39">
+        <v>79</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:7">
+      <c r="A40" s="2">
+        <v>45968</v>
+      </c>
+      <c r="B40">
+        <v>3389</v>
+      </c>
+      <c r="C40">
+        <v>3245</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="E40">
+        <v>83</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:7">
+      <c r="A41" s="2">
+        <v>45969</v>
+      </c>
+      <c r="B41">
+        <v>3140</v>
+      </c>
+      <c r="C41">
+        <v>2973</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>167</v>
+      </c>
+      <c r="E41">
+        <v>63</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:7">
+      <c r="A42" s="2">
+        <v>45970</v>
+      </c>
+      <c r="B42">
+        <v>914</v>
+      </c>
+      <c r="C42">
+        <v>856</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="E42">
+        <v>21</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:7">
+      <c r="A43" s="2">
+        <v>45971</v>
+      </c>
+      <c r="B43">
+        <v>4184</v>
+      </c>
+      <c r="C43">
+        <v>3948</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>236</v>
+      </c>
+      <c r="E43">
+        <v>77</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:7">
+      <c r="A44" s="2">
+        <v>45972</v>
+      </c>
+      <c r="B44">
+        <v>6360</v>
+      </c>
+      <c r="C44">
+        <v>6231</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="E44">
+        <v>146</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+      <c r="G44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:7">
+      <c r="A45" s="2">
+        <v>45973</v>
+      </c>
+      <c r="B45">
+        <v>338</v>
+      </c>
+      <c r="C45">
+        <v>157</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>181</v>
+      </c>
+      <c r="E45">
+        <v>24</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:7">
+      <c r="A46" s="2">
+        <v>45974</v>
+      </c>
+      <c r="B46">
+        <v>288</v>
+      </c>
+      <c r="C46">
+        <v>112</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46:D56" si="2">B46-C46</f>
+        <v>176</v>
+      </c>
+      <c r="E46">
+        <v>27</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:7">
+      <c r="A47" s="2">
+        <v>45975</v>
+      </c>
+      <c r="B47">
+        <v>2980</v>
+      </c>
+      <c r="C47">
+        <v>2847</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="E47">
+        <v>40</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:7">
+      <c r="A48" s="2">
+        <v>45976</v>
+      </c>
+      <c r="B48">
+        <v>1703</v>
+      </c>
+      <c r="C48">
+        <v>1610</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="E48">
+        <v>48</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:7">
+      <c r="A49" s="2">
+        <v>45977</v>
+      </c>
+      <c r="B49">
+        <v>149</v>
+      </c>
+      <c r="C49">
+        <v>68</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:7">
+      <c r="A50" s="2">
+        <v>45978</v>
+      </c>
+      <c r="B50">
+        <v>2920</v>
+      </c>
+      <c r="C50">
+        <v>2526</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>394</v>
+      </c>
+      <c r="E50">
+        <v>54</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:7">
+      <c r="A51" s="2">
+        <v>45979</v>
+      </c>
+      <c r="B51">
+        <v>2889</v>
+      </c>
+      <c r="C51">
+        <v>2715</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="E51">
+        <v>78</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:7">
+      <c r="A52" s="2">
+        <v>45980</v>
+      </c>
+      <c r="B52">
+        <v>2653</v>
+      </c>
+      <c r="C52">
+        <v>2314</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>339</v>
+      </c>
+      <c r="E52">
+        <v>86</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:7">
+      <c r="A53" s="2">
+        <v>45981</v>
+      </c>
+      <c r="B53">
+        <v>1879</v>
+      </c>
+      <c r="C53">
+        <v>1640</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="2"/>
+        <v>239</v>
+      </c>
+      <c r="E53">
+        <v>50</v>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="G53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:7">
+      <c r="A54" s="2">
+        <v>45982</v>
+      </c>
+      <c r="B54">
+        <v>2061</v>
+      </c>
+      <c r="C54">
+        <v>1853</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="2"/>
+        <v>208</v>
+      </c>
+      <c r="E54">
+        <v>50</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:7">
+      <c r="A55" s="2">
+        <v>45983</v>
+      </c>
+      <c r="B55">
+        <v>1061</v>
+      </c>
+      <c r="C55">
+        <v>828</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="2"/>
+        <v>233</v>
+      </c>
+      <c r="E55">
+        <v>50</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:7">
+      <c r="A56" s="2">
         <v>45984</v>
       </c>
-      <c r="B25">
+      <c r="B56">
         <v>677</v>
       </c>
-      <c r="C25">
+      <c r="C56">
         <v>627</v>
       </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
+      <c r="D56">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="E25">
+      <c r="E56">
         <v>9</v>
       </c>
-      <c r="F25">
+      <c r="F56">
         <v>1</v>
       </c>
-      <c r="G25">
+      <c r="G56">
         <v>1</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:1">
-      <c r="A26" s="1">
+    <row r="57" customHeight="1" spans="1:1">
+      <c r="A57" s="2">
         <v>45985</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:1">
-      <c r="A27" s="1">
+    <row r="58" customHeight="1" spans="1:1">
+      <c r="A58" s="2">
         <v>45986</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:1">
-      <c r="A28" s="1">
+    <row r="59" customHeight="1" spans="1:1">
+      <c r="A59" s="2">
         <v>45987</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:1">
-      <c r="A29" s="1">
+    <row r="60" customHeight="1" spans="1:1">
+      <c r="A60" s="2">
         <v>45988</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:1">
-      <c r="A30" s="1">
+    <row r="61" customHeight="1" spans="1:1">
+      <c r="A61" s="2">
         <v>45989</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:1">
-      <c r="A31" s="1">
+    <row r="62" customHeight="1" spans="1:1">
+      <c r="A62" s="2">
         <v>45990</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:1">
-      <c r="A32" s="1">
+    <row r="63" customHeight="1" spans="1:1">
+      <c r="A63" s="2">
         <v>45991</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:1">
-      <c r="A33" s="1">
+    <row r="64" customHeight="1" spans="1:1">
+      <c r="A64" s="2">
         <v>45992</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:1">
-      <c r="A34" s="1">
+    <row r="65" customHeight="1" spans="1:1">
+      <c r="A65" s="2">
         <v>45993</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:1">
-      <c r="A35" s="1">
+    <row r="66" customHeight="1" spans="1:1">
+      <c r="A66" s="2">
         <v>45994</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:1">
-      <c r="A36" s="1">
+    <row r="67" customHeight="1" spans="1:1">
+      <c r="A67" s="2">
         <v>45995</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:1">
-      <c r="A37" s="1">
+    <row r="68" customHeight="1" spans="1:1">
+      <c r="A68" s="2">
         <v>45996</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:1">
-      <c r="A38" s="1">
+    <row r="69" customHeight="1" spans="1:1">
+      <c r="A69" s="2">
         <v>45997</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:1">
-      <c r="A39" s="1">
+    <row r="70" customHeight="1" spans="1:1">
+      <c r="A70" s="2">
         <v>45998</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:1">
-      <c r="A40" s="1">
+    <row r="71" customHeight="1" spans="1:1">
+      <c r="A71" s="2">
         <v>45999</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:1">
-      <c r="A41" s="1">
+    <row r="72" customHeight="1" spans="1:1">
+      <c r="A72" s="2">
         <v>46000</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:1">
-      <c r="A42" s="1">
+    <row r="73" customHeight="1" spans="1:1">
+      <c r="A73" s="2">
         <v>46001</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:1">
-      <c r="A43" s="1">
+    <row r="74" customHeight="1" spans="1:1">
+      <c r="A74" s="2">
         <v>46002</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:1">
-      <c r="A44" s="1">
+    <row r="75" customHeight="1" spans="1:1">
+      <c r="A75" s="2">
         <v>46003</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:1">
-      <c r="A45" s="1">
+    <row r="76" customHeight="1" spans="1:1">
+      <c r="A76" s="2">
         <v>46004</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:1">
-      <c r="A46" s="1">
+    <row r="77" customHeight="1" spans="1:1">
+      <c r="A77" s="2">
         <v>46005</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:1">
-      <c r="A47" s="1">
+    <row r="78" customHeight="1" spans="1:1">
+      <c r="A78" s="2">
         <v>46006</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:1">
-      <c r="A48" s="1">
+    <row r="79" customHeight="1" spans="1:1">
+      <c r="A79" s="2">
         <v>46007</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:1">
-      <c r="A49" s="1">
+    <row r="80" customHeight="1" spans="1:1">
+      <c r="A80" s="2">
         <v>46008</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:1">
-      <c r="A50" s="1">
+    <row r="81" customHeight="1" spans="1:1">
+      <c r="A81" s="2">
         <v>46009</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:1">
-      <c r="A51" s="1">
+    <row r="82" customHeight="1" spans="1:1">
+      <c r="A82" s="2">
         <v>46010</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:1">
-      <c r="A52" s="1">
+    <row r="83" customHeight="1" spans="1:1">
+      <c r="A83" s="2">
         <v>46011</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:1">
-      <c r="A53" s="1">
+    <row r="84" customHeight="1" spans="1:1">
+      <c r="A84" s="2">
         <v>46012</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:1">
-      <c r="A54" s="1">
+    <row r="85" customHeight="1" spans="1:1">
+      <c r="A85" s="2">
         <v>46013</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:1">
-      <c r="A55" s="1">
+    <row r="86" customHeight="1" spans="1:1">
+      <c r="A86" s="2">
         <v>46014</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:1">
-      <c r="A56" s="1">
+    <row r="87" customHeight="1" spans="1:1">
+      <c r="A87" s="2">
         <v>46015</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:1">
-      <c r="A57" s="1">
+    <row r="88" customHeight="1" spans="1:1">
+      <c r="A88" s="2">
         <v>46016</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:1">
-      <c r="A58" s="1">
+    <row r="89" customHeight="1" spans="1:1">
+      <c r="A89" s="2">
         <v>46017</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="1:1">
-      <c r="A59" s="1">
+    <row r="90" customHeight="1" spans="1:1">
+      <c r="A90" s="2">
         <v>46018</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:1">
-      <c r="A60" s="1">
+    <row r="91" customHeight="1" spans="1:1">
+      <c r="A91" s="2">
         <v>46019</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:1">
-      <c r="A61" s="1">
+    <row r="92" customHeight="1" spans="1:1">
+      <c r="A92" s="2">
         <v>46020</v>
       </c>
     </row>
